--- a/Linux/DeviceDrivers/Document(important)/02.并发与竞态.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/02.并发与竞态.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AC948B-66ED-4814-B2CB-9B9C30014263}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C562BB72-F14F-4267-92CE-2A4E79FBD12E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="845" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atomic_hc" sheetId="1" r:id="rId1"/>
-    <sheet name="spinlock_hc" sheetId="3" r:id="rId2"/>
-    <sheet name="rwlock_hc" sheetId="4" r:id="rId3"/>
-    <sheet name="seqlock_hc" sheetId="5" r:id="rId4"/>
-    <sheet name="rcupdate_hc" sheetId="6" r:id="rId5"/>
-    <sheet name="semaphore_hc" sheetId="8" r:id="rId6"/>
-    <sheet name="mutex_hc" sheetId="7" r:id="rId7"/>
-    <sheet name="completion_hc" sheetId="10" r:id="rId8"/>
+    <sheet name="atomic_sam" sheetId="11" r:id="rId2"/>
+    <sheet name="spinlock_hc" sheetId="3" r:id="rId3"/>
+    <sheet name="spinlock_sam" sheetId="12" r:id="rId4"/>
+    <sheet name="rwlock_hc" sheetId="4" r:id="rId5"/>
+    <sheet name="seqlock_hc" sheetId="5" r:id="rId6"/>
+    <sheet name="semaphore_hc" sheetId="8" r:id="rId7"/>
+    <sheet name="semaphore_sam" sheetId="13" r:id="rId8"/>
+    <sheet name="mutex_hc" sheetId="7" r:id="rId9"/>
+    <sheet name="mutex_sam" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="293">
   <si>
     <r>
       <rPr>
@@ -570,14 +572,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>rcupdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/rcupdate.h</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>mutex</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -677,238 +671,430 @@
     <t>extern void mutex_lock(struct mutex *lock);</t>
   </si>
   <si>
+    <t>extern int __must_check mutex_lock_killable(struct mutex *lock);</t>
+  </si>
+  <si>
+    <t>extern int mutex_trylock(struct mutex *lock);</t>
+  </si>
+  <si>
+    <t>extern void mutex_unlock(struct mutex *lock);</t>
+  </si>
+  <si>
+    <t>void down(struct semaphore *sem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    unsigned long flags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    raw_spin_lock_irqsave(&amp;sem-&gt;lock, flags);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (likely(sem-&gt;count &gt; 0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sem-&gt;count--;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        __down(sem);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    raw_spin_unlock_irqrestore(&amp;sem-&gt;lock, flags);</t>
+  </si>
+  <si>
+    <t>void up(struct semaphore *sem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (likely(list_empty(&amp;sem-&gt;wait_list)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sem-&gt;count++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        __up(sem);</t>
+  </si>
+  <si>
+    <t>static inline void sema_init(struct semaphore *sem, int val)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static struct lock_class_key __key;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *sem = (struct semaphore) __SEMAPHORE_INITIALIZER(*sem, val);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lockdep_init_map(&amp;sem-&gt;lock.dep_map, "semaphore-&gt;lock", &amp;__key, 0);</t>
+  </si>
+  <si>
+    <t># define mutex_init(mutex)                    \</t>
+  </si>
+  <si>
+    <t>do {                                          \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static struct lock_class_key __key;       \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    __mutex_init((mutex), #mutex, &amp;__key);    \</t>
+  </si>
+  <si>
+    <t>} while (0)</t>
+  </si>
+  <si>
+    <t>void __sched mutex_lock(struct mutex *lock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    might_sleep();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * The locking fastpath is the 1-&gt;0 transition from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * 'unlocked' into 'locked' state.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    __mutex_fastpath_lock(&amp;lock-&gt;count, __mutex_lock_slowpath);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mutex_set_owner(lock);</t>
+  </si>
+  <si>
+    <t>void __sched mutex_unlock(struct mutex *lock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * The unlocking fastpath is the 0-&gt;1 transition from 'locked'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * into 'unlocked' state:</t>
+  </si>
+  <si>
+    <t>#ifndef CONFIG_DEBUG_MUTEXES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * When debugging is enabled we must not clear the owner before time,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * the slow path will always be taken, and that clears the owner field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * after verifying that it was indeed current.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mutex_clear_owner(lock);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    __mutex_fastpath_unlock(&amp;lock-&gt;count, __mutex_unlock_slowpath);</t>
+  </si>
+  <si>
+    <t>#define test_and_set_bit(nr,p)     ATOMIC_BITOP(test_and_set_bit,nr,p)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>################################ atomic ################################</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int xxx_open(struct inode *inode, struct file *filp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return -EBUSY;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return 0;</t>
+  </si>
+  <si>
+    <t>static int xxx_release(struct inode *inode, struct file *filp)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独占设备</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>################################ spinlock ################################</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>static atomic_t xxx_allow_count = ATOMIC_INIT(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!atomic_dec_and_test(&amp;xxx_allow_count)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        atomic_inc(&amp;xxx_allow_count);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    atomic_inc(&amp;xxx_allow_count);</t>
+  </si>
+  <si>
+    <t>static int xxx_open_count = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    spinlock(&amp;lock);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (xxx_open_count) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        spinunlock(&amp;lock);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    xxx_open_count++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    spinunlock(&amp;lock);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    xxx_open_count--;</t>
+  </si>
+  <si>
+    <t>################################ semaphore ################################</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保护资源</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sema_init(&amp;test_sem, 1);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>down_interruptible(&amp;test_sem);</t>
+  </si>
+  <si>
+    <t>if (buf) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t>up(&amp;test_sem);</t>
+  </si>
+  <si>
+    <t>释放资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kfree(buf);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>################################ mutex ################################</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define DEFINE_SEMAPHORE(name) struct semaphore name = __SEMAPHORE_INITIALIZER(name, 1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>static struct semaphore test_sem;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFINE_SEMAPHORE(test_sem);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define DEFINE_MUTEX(mutexname) struct mutex mutexname = __MUTEX_INITIALIZER(mutexname)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFINE_MUTEX(test_mutex);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutex_init(test_mutex);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>extern int __must_check mutex_lock_interruptible(struct mutex *lock);</t>
-  </si>
-  <si>
-    <t>extern int __must_check mutex_lock_killable(struct mutex *lock);</t>
-  </si>
-  <si>
-    <t>extern int mutex_trylock(struct mutex *lock);</t>
-  </si>
-  <si>
-    <t>extern void mutex_unlock(struct mutex *lock);</t>
-  </si>
-  <si>
-    <t>void down(struct semaphore *sem)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    unsigned long flags;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    raw_spin_lock_irqsave(&amp;sem-&gt;lock, flags);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (likely(sem-&gt;count &gt; 0))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        sem-&gt;count--;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        __down(sem);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    raw_spin_unlock_irqrestore(&amp;sem-&gt;lock, flags);</t>
-  </si>
-  <si>
-    <t>void up(struct semaphore *sem)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (likely(list_empty(&amp;sem-&gt;wait_list)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        sem-&gt;count++;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        __up(sem);</t>
-  </si>
-  <si>
-    <t>static inline void sema_init(struct semaphore *sem, int val)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    static struct lock_class_key __key;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    *sem = (struct semaphore) __SEMAPHORE_INITIALIZER(*sem, val);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    lockdep_init_map(&amp;sem-&gt;lock.dep_map, "semaphore-&gt;lock", &amp;__key, 0);</t>
-  </si>
-  <si>
-    <t># define mutex_init(mutex)                    \</t>
-  </si>
-  <si>
-    <t>do {                                          \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    static struct lock_class_key __key;       \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    __mutex_init((mutex), #mutex, &amp;__key);    \</t>
-  </si>
-  <si>
-    <t>} while (0)</t>
-  </si>
-  <si>
-    <t>void __sched mutex_lock(struct mutex *lock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    might_sleep();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     * The locking fastpath is the 1-&gt;0 transition from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     * 'unlocked' into 'locked' state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    __mutex_fastpath_lock(&amp;lock-&gt;count, __mutex_lock_slowpath);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    mutex_set_owner(lock);</t>
-  </si>
-  <si>
-    <t>void __sched mutex_unlock(struct mutex *lock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     * The unlocking fastpath is the 0-&gt;1 transition from 'locked'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     * into 'unlocked' state:</t>
-  </si>
-  <si>
-    <t>#ifndef CONFIG_DEBUG_MUTEXES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     * When debugging is enabled we must not clear the owner before time,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     * the slow path will always be taken, and that clears the owner field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     * after verifying that it was indeed current.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    mutex_clear_owner(lock);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    __mutex_fastpath_unlock(&amp;lock-&gt;count, __mutex_unlock_slowpath);</t>
-  </si>
-  <si>
-    <t>completion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct completion {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    unsigned int done;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    wait_queue_head_t wait;</t>
-  </si>
-  <si>
-    <t>static inline void init_completion(struct completion *x);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>static inline void init_completion(struct completion *x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    x-&gt;done = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    init_waitqueue_head(&amp;x-&gt;wait);</t>
-  </si>
-  <si>
-    <t>static inline void reinit_completion(struct completion *x);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>extern void wait_for_completion(struct completion *);</t>
-  </si>
-  <si>
-    <t>extern void complete(struct completion *);</t>
-  </si>
-  <si>
-    <t>extern void complete_all(struct completion *);</t>
-  </si>
-  <si>
-    <t>void __sched wait_for_completion(struct completion *x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    wait_for_common(x, MAX_SCHEDULE_TIMEOUT, TASK_UNINTERRUPTIBLE);</t>
-  </si>
-  <si>
-    <t>void complete(struct completion *x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    spin_lock_irqsave(&amp;x-&gt;wait.lock, flags);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    x-&gt;done++;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    __wake_up_locked(&amp;x-&gt;wait, TASK_NORMAL, 1);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    spin_unlock_irqrestore(&amp;x-&gt;wait.lock, flags);</t>
-  </si>
-  <si>
-    <t>#define test_and_set_bit(nr,p)     ATOMIC_BITOP(test_and_set_bit,nr,p)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/completion.h</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#define COMPLETION_INITIALIZER(work) { 0, __WAIT_QUEUE_HEAD_INITIALIZER((work).wait) }</t>
-  </si>
-  <si>
-    <t>#define COMPLETION_INITIALIZER_ONSTACK(work) ({ init_completion(&amp;work); work; })</t>
-  </si>
-  <si>
-    <t>#define DEFINE_MUTEX(mutexname) struct mutex mutexname = __MUTEX_INITIALIZER(mutexname)</t>
-  </si>
-  <si>
-    <t>#define DEFINE_SEMAPHORE(name) struct semaphore name = __SEMAPHORE_INITIALIZER(name, 1)</t>
-  </si>
-  <si>
-    <t>extern void wait_for_completion_io(struct completion *);</t>
-  </si>
-  <si>
-    <t>extern int wait_for_completion_interruptible(struct completion *x);</t>
-  </si>
-  <si>
-    <t>extern int wait_for_completion_killable(struct completion *x);</t>
-  </si>
-  <si>
-    <t>extern unsigned long wait_for_completion_timeout(struct completion *x, unsigned long timeout);</t>
-  </si>
-  <si>
-    <t>extern unsigned long wait_for_completion_io_timeout(struct completion *x, unsigned long timeout);</t>
-  </si>
-  <si>
-    <t>extern long wait_for_completion_interruptible_timeout(struct completion *x, unsigned long timeout);</t>
-  </si>
-  <si>
-    <t>extern long wait_for_completion_killable_timeout(struct completion *x, unsigned long timeout);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutex_lock_interruptible(&amp;test_mutex);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutex_unlock(&amp;test_mutex);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>static struct spinlock_t lock;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>static struct mutex test_mutex;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>static noinline void __sched __down(struct semaphore *sem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    __down_common(sem, TASK_UNINTERRUPTIBLE, MAX_SCHEDULE_TIMEOUT);</t>
+  </si>
+  <si>
+    <t>static inline int __sched __down_common(struct semaphore *sem, long state, long timeout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct task_struct *task = current;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct semaphore_waiter waiter;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    list_add_tail(&amp;waiter.list, &amp;sem-&gt;wait_list);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    waiter.task = task;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    waiter.up = false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for (;;) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (signal_pending_state(state, task))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            goto interrupted;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (unlikely(timeout &lt;= 0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            goto timed_out;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        __set_task_state(task, state);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        raw_spin_unlock_irq(&amp;sem-&gt;lock);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        timeout = schedule_timeout(timeout);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        raw_spin_lock_irq(&amp;sem-&gt;lock);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (waiter.up)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> timed_out:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    list_del(&amp;waiter.list);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return -ETIME;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interrupted:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return -EINTR;</t>
+  </si>
+  <si>
+    <t>static noinline void __sched __up(struct semaphore *sem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct semaphore_waiter *waiter = list_first_entry(&amp;sem-&gt;wait_list, struct semaphore_waiter, list);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    list_del(&amp;waiter-&gt;list);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    waiter-&gt;up = true;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wake_up_process(waiter-&gt;task);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,6 +1121,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -994,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1017,6 +1210,9 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1517,7 +1713,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>46</v>
@@ -1586,12 +1782,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69925744-C9BE-49ED-B14F-8AC626104B1A}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.77734375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569D1F0A-036F-4AB1-8702-7D0ACFF55B91}">
+  <dimension ref="B2:C19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.77734375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1823,7 +2225,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457B7EAD-1577-4525-B075-6B2FF7B051CC}">
+  <dimension ref="B2:C25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.77734375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E75"/>
   <sheetViews>
@@ -2259,12 +2790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2373,62 +2904,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:E3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:E78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2437,7 +2918,7 @@
     <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2460,23 +2941,23 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>23</v>
@@ -2484,26 +2965,26 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -2514,18 +2995,18 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="E12" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>23</v>
@@ -2534,69 +3015,72 @@
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="3" t="s">
-        <v>194</v>
+      <c r="E24" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -2606,44 +3090,247 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="6" t="s">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2654,12 +3341,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F37410-0900-41DE-AA11-DB211D5DD4AB}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.77734375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2691,68 +3485,68 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>23</v>
@@ -2760,63 +3554,63 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>36</v>
@@ -2824,15 +3618,15 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
@@ -2843,300 +3637,96 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E37" s="6" t="s">
         <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:E26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="72.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="E9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="E24" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Linux/DeviceDrivers/Document(important)/02.并发与竞态.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/02.并发与竞态.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C562BB72-F14F-4267-92CE-2A4E79FBD12E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76926CB0-48BC-48CD-9B69-273058FE79CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="845" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atomic_hc" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="mutex_hc" sheetId="7" r:id="rId9"/>
     <sheet name="mutex_sam" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2908,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:E78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -3452,7 +3452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
